--- a/artfynd/A 64675-2021 artfynd.xlsx
+++ b/artfynd/A 64675-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY42"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5568,6 +5568,335 @@
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>131219323</v>
+      </c>
+      <c r="B43" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Sims bodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>515391</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6704950</v>
+      </c>
+      <c r="S43" t="n">
+        <v>25</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>131219238</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Sims bodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>515365</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6704964</v>
+      </c>
+      <c r="S44" t="n">
+        <v>50</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>131219286</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Sims bodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>515382</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6704962</v>
+      </c>
+      <c r="S45" t="n">
+        <v>50</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
